--- a/doc/接口编写记录文档.xlsx
+++ b/doc/接口编写记录文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18095" windowHeight="8340"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$167</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="297">
   <si>
     <t>融合通信WEB接口文档</t>
   </si>
@@ -736,6 +736,180 @@
   </si>
   <si>
     <t>2.11.21.emloyeeSync</t>
+  </si>
+  <si>
+    <t>2.12.1.setRegisterProfile</t>
+  </si>
+  <si>
+    <t>RTCStream</t>
+  </si>
+  <si>
+    <t>设置本地注册账号信息</t>
+  </si>
+  <si>
+    <t>2.12.2.setScreenProfile</t>
+  </si>
+  <si>
+    <t>设置屏幕共享的属性，必须在RTCStream.init之前调用</t>
+  </si>
+  <si>
+    <t>2.12.3.setVideoProfile</t>
+  </si>
+  <si>
+    <t>设置摄像头视频属性</t>
+  </si>
+  <si>
+    <t>2.12.4.init</t>
+  </si>
+  <si>
+    <t>初始化本地音视频对象，并且向服务器去注册</t>
+  </si>
+  <si>
+    <t>2.12.5.destory</t>
+  </si>
+  <si>
+    <t>销毁Webrtc2Sip所有实例</t>
+  </si>
+  <si>
+    <t>2.12.6.open</t>
+  </si>
+  <si>
+    <t>2.12.7.close</t>
+  </si>
+  <si>
+    <t>2.12.8.play</t>
+  </si>
+  <si>
+    <t>2.12.9.stop</t>
+  </si>
+  <si>
+    <t>2.12.10.isPlaying</t>
+  </si>
+  <si>
+    <t>2.12.11.hasVideo</t>
+  </si>
+  <si>
+    <t>2.12.12.mute</t>
+  </si>
+  <si>
+    <t>2.12.13.unmute</t>
+  </si>
+  <si>
+    <t>2.12.14.takeSnapshot</t>
+  </si>
+  <si>
+    <t>2.12.15.startMediaRecording</t>
+  </si>
+  <si>
+    <t>2.12.16.stopMediaRecording</t>
+  </si>
+  <si>
+    <t>2.12.17.on</t>
+  </si>
+  <si>
+    <t>在该实例上添加listener函数到名为event的事件监听</t>
+  </si>
+  <si>
+    <t>2.12.18.once</t>
+  </si>
+  <si>
+    <t>单次在该实例上添加listener函数到名为event的事件监听</t>
+  </si>
+  <si>
+    <t>2.12.19.off</t>
+  </si>
+  <si>
+    <t>取消一个指定事件的监听</t>
+  </si>
+  <si>
+    <t>2.12.20.offAll</t>
+  </si>
+  <si>
+    <t>指定一个事件，取消其所有的监听</t>
+  </si>
+  <si>
+    <t>2.12.21.onRTCLocalConnectionStateChange</t>
+  </si>
+  <si>
+    <t>2.12.22.onRTCRemoteConnectionStateChange</t>
+  </si>
+  <si>
+    <t>2.13.1.play</t>
+  </si>
+  <si>
+    <t>RTSPStream</t>
+  </si>
+  <si>
+    <t>播放视频</t>
+  </si>
+  <si>
+    <t>2.13.2.stop</t>
+  </si>
+  <si>
+    <t>2.13.3.isPlaying</t>
+  </si>
+  <si>
+    <t>2.13.4.takeSnapshot</t>
+  </si>
+  <si>
+    <t>2.13.5.startMediaRecording</t>
+  </si>
+  <si>
+    <t>2.13.6.stopMediaRecording</t>
+  </si>
+  <si>
+    <t>2.13.7.on</t>
+  </si>
+  <si>
+    <t>2.13.8.once</t>
+  </si>
+  <si>
+    <t>2.13.9.off</t>
+  </si>
+  <si>
+    <t>2.13.10.offAll</t>
+  </si>
+  <si>
+    <t>2.13.10.close</t>
+  </si>
+  <si>
+    <t>2.14.1.DeviceInfo</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>2.14.2.RTCStreamOptions</t>
+  </si>
+  <si>
+    <t>2.14.3.RTSPStreamOptions</t>
+  </si>
+  <si>
+    <t>2.14.4.ConnectionState</t>
+  </si>
+  <si>
+    <t>2.14.5.ConnectionDisconnectedReason</t>
+  </si>
+  <si>
+    <t>2.14.6.VideoResolutionQuality</t>
+  </si>
+  <si>
+    <t>2.14.7.VideoFrameRate</t>
+  </si>
+  <si>
+    <t>2.14.8.DataAction</t>
+  </si>
+  <si>
+    <t>数据操作类型</t>
+  </si>
+  <si>
+    <t>2.14.9.OperatorInfo</t>
+  </si>
+  <si>
+    <t>2.14.10.OperatorLog</t>
+  </si>
+  <si>
+    <t>2.14.11.GroupInfo</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,6 +1576,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,12 +1929,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
+      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.65" customHeight="1" outlineLevelCol="7"/>
@@ -4156,7 +4333,7 @@
       <c r="B103" t="s">
         <v>211</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D103" t="s">
@@ -4182,6 +4359,7 @@
       <c r="B104" t="s">
         <v>214</v>
       </c>
+      <c r="C104" s="6"/>
       <c r="D104" t="s">
         <v>215</v>
       </c>
@@ -4205,6 +4383,7 @@
       <c r="B105" t="s">
         <v>216</v>
       </c>
+      <c r="C105" s="6"/>
       <c r="E105" t="s">
         <v>28</v>
       </c>
@@ -4222,6 +4401,7 @@
       <c r="B106" t="s">
         <v>217</v>
       </c>
+      <c r="C106" s="6"/>
       <c r="D106" t="s">
         <v>218</v>
       </c>
@@ -4245,6 +4425,7 @@
       <c r="B107" t="s">
         <v>219</v>
       </c>
+      <c r="C107" s="6"/>
       <c r="D107" t="s">
         <v>220</v>
       </c>
@@ -4268,6 +4449,7 @@
       <c r="B108" t="s">
         <v>222</v>
       </c>
+      <c r="C108" s="6"/>
       <c r="E108" t="s">
         <v>28</v>
       </c>
@@ -4285,6 +4467,7 @@
       <c r="B109" t="s">
         <v>223</v>
       </c>
+      <c r="C109" s="6"/>
       <c r="E109" t="s">
         <v>28</v>
       </c>
@@ -4302,6 +4485,7 @@
       <c r="B110" t="s">
         <v>224</v>
       </c>
+      <c r="C110" s="6"/>
       <c r="E110" t="s">
         <v>28</v>
       </c>
@@ -4319,6 +4503,7 @@
       <c r="B111" t="s">
         <v>225</v>
       </c>
+      <c r="C111" s="6"/>
       <c r="E111" t="s">
         <v>28</v>
       </c>
@@ -4336,6 +4521,7 @@
       <c r="B112" t="s">
         <v>226</v>
       </c>
+      <c r="C112" s="6"/>
       <c r="E112" t="s">
         <v>28</v>
       </c>
@@ -4353,6 +4539,7 @@
       <c r="B113" t="s">
         <v>227</v>
       </c>
+      <c r="C113" s="6"/>
       <c r="E113" t="s">
         <v>28</v>
       </c>
@@ -4370,6 +4557,7 @@
       <c r="B114" t="s">
         <v>228</v>
       </c>
+      <c r="C114" s="6"/>
       <c r="D114" t="s">
         <v>229</v>
       </c>
@@ -4393,6 +4581,7 @@
       <c r="B115" t="s">
         <v>230</v>
       </c>
+      <c r="C115" s="6"/>
       <c r="E115" t="s">
         <v>28</v>
       </c>
@@ -4410,6 +4599,7 @@
       <c r="B116" t="s">
         <v>231</v>
       </c>
+      <c r="C116" s="6"/>
       <c r="E116" t="s">
         <v>28</v>
       </c>
@@ -4427,6 +4617,7 @@
       <c r="B117" t="s">
         <v>232</v>
       </c>
+      <c r="C117" s="6"/>
       <c r="E117" t="s">
         <v>28</v>
       </c>
@@ -4444,6 +4635,7 @@
       <c r="B118" t="s">
         <v>233</v>
       </c>
+      <c r="C118" s="6"/>
       <c r="E118" t="s">
         <v>28</v>
       </c>
@@ -4461,6 +4653,7 @@
       <c r="B119" t="s">
         <v>234</v>
       </c>
+      <c r="C119" s="6"/>
       <c r="E119" t="s">
         <v>28</v>
       </c>
@@ -4478,6 +4671,7 @@
       <c r="B120" t="s">
         <v>235</v>
       </c>
+      <c r="C120" s="6"/>
       <c r="E120" t="s">
         <v>28</v>
       </c>
@@ -4495,6 +4689,7 @@
       <c r="B121" t="s">
         <v>236</v>
       </c>
+      <c r="C121" s="6"/>
       <c r="E121" t="s">
         <v>28</v>
       </c>
@@ -4512,6 +4707,7 @@
       <c r="B122" t="s">
         <v>237</v>
       </c>
+      <c r="C122" s="6"/>
       <c r="E122" t="s">
         <v>28</v>
       </c>
@@ -4529,6 +4725,7 @@
       <c r="B123" t="s">
         <v>238</v>
       </c>
+      <c r="C123" s="6"/>
       <c r="E123" t="s">
         <v>24</v>
       </c>
@@ -4542,9 +4739,864 @@
         <v>13</v>
       </c>
     </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D124" t="s">
+        <v>241</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="7">
+        <v>44882</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" t="s">
+        <v>245</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>246</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" t="s">
+        <v>247</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" t="s">
+        <v>249</v>
+      </c>
+      <c r="E128" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" s="11"/>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" s="11"/>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" s="11"/>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+      <c r="F133" s="7">
+        <v>44882</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>255</v>
+      </c>
+      <c r="C134" s="11"/>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+      <c r="F135" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C136" s="11"/>
+      <c r="E136" t="s">
+        <v>28</v>
+      </c>
+      <c r="F136" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>258</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>259</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="E138" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+      <c r="F139" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" t="s">
+        <v>262</v>
+      </c>
+      <c r="E140" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="7">
+        <v>44883</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" t="s">
+        <v>264</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="7">
+        <v>44883</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>265</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" t="s">
+        <v>266</v>
+      </c>
+      <c r="E142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="7">
+        <v>44883</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" t="s">
+        <v>268</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="7">
+        <v>44883</v>
+      </c>
+      <c r="G143" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="E144" t="s">
+        <v>28</v>
+      </c>
+      <c r="F144" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="11"/>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="7">
+        <v>44883</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D146" t="s">
+        <v>273</v>
+      </c>
+      <c r="E146" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="7">
+        <v>44886</v>
+      </c>
+      <c r="G146" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" s="11"/>
+      <c r="E147" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" s="11"/>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>276</v>
+      </c>
+      <c r="C149" s="11"/>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>277</v>
+      </c>
+      <c r="C150" s="11"/>
+      <c r="E150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F150" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" s="11"/>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="E154" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="11"/>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>283</v>
+      </c>
+      <c r="C156" s="11"/>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" t="s">
+        <v>24</v>
+      </c>
+      <c r="F156" s="7">
+        <v>44886</v>
+      </c>
+      <c r="G156" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="7">
+        <v>44886</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158" s="11"/>
+      <c r="E158" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:8">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" s="11"/>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:8">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:8">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>290</v>
+      </c>
+      <c r="C162" s="11"/>
+      <c r="E162" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:8">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" s="11"/>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>292</v>
+      </c>
+      <c r="C164" s="11"/>
+      <c r="D164" t="s">
+        <v>293</v>
+      </c>
+      <c r="E164" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" s="11"/>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:8">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:8">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="7">
+        <v>44887</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A2:H123">
+  <autoFilter ref="A2:H167">
     <extLst>
       <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0">
         <etc:analysisCharts>
@@ -4558,7 +5610,7 @@
       </etc:autoFilterAnalysis>
     </extLst>
   </autoFilter>
-  <mergeCells count="10">
+  <mergeCells count="14">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C12"/>
@@ -4569,6 +5621,10 @@
     <mergeCell ref="C84:C92"/>
     <mergeCell ref="C93:C99"/>
     <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C123"/>
+    <mergeCell ref="C124:C145"/>
+    <mergeCell ref="C146:C156"/>
+    <mergeCell ref="C157:C167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
